--- a/latex/spreadsheets/tr_hist.xlsx
+++ b/latex/spreadsheets/tr_hist.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1350" windowWidth="28800" windowHeight="13020"/>
+    <workbookView xWindow="0" yWindow="1950" windowWidth="28800" windowHeight="13020"/>
   </bookViews>
   <sheets>
     <sheet name="tr-hist" sheetId="1" r:id="rId1"/>
@@ -18227,11 +18227,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="0"/>
-        <c:axId val="184431816"/>
-        <c:axId val="185073240"/>
+        <c:axId val="441674312"/>
+        <c:axId val="441678232"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="184431816"/>
+        <c:axId val="441674312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -18288,17 +18288,17 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="185073240"/>
+        <c:crossAx val="441678232"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
         <c:tickLblSkip val="250"/>
-        <c:tickMarkSkip val="250"/>
+        <c:tickMarkSkip val="500"/>
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="185073240"/>
+        <c:axId val="441678232"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -18356,7 +18356,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="184431816"/>
+        <c:crossAx val="441674312"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -18966,10 +18966,10 @@
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>313650</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>180525</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>342450</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>74025</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -19257,7 +19257,7 @@
   <dimension ref="A1:C2932"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O9" sqref="O9"/>
+      <selection activeCell="R10" sqref="R10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
